--- a/documents/Authorship_ranks.xlsx
+++ b/documents/Authorship_ranks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Category Points</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MC</t>
   </si>
 </sst>
 </file>
@@ -433,6 +445,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -441,35 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,7 +791,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,17 +817,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -828,64 +840,64 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>3</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>4</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>2</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>2</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <v>2</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="8">
         <v>2</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="8">
         <v>3</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="8">
         <v>1</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="8">
         <v>1</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="8">
         <v>3</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11">
+      <c r="S2" s="8"/>
+      <c r="T2" s="8">
         <f>SUM(C2:R2)</f>
         <v>32</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -942,10 +954,10 @@
       <c r="R3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -953,115 +965,199 @@
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="16">
+      <c r="S4" s="11"/>
+      <c r="T4" s="13">
         <f>SUM(IF(C4="x",$C$2,0),IF(D4="x",$D$2,0),IF(E4="x",$E$2,0),IF(F4="x",$F$2,0),IF(G4="x",$G$2,0),IF(H4="x",$H$2,0),IF(I4="x",$I$2,0),IF(J4="x",$J$2,0),IF(K4="x",$K$2,0),IF(L4="x",$L$2,0),IF(M4="x",$M$2,0),IF(N4="x",$N$2,0),IF(O4="x",$O$2,0),IF(P4="x",$P$2,0),IF(Q4="x",$Q$2,0),IF(R4="x",$R$2,0))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="16">
+      <c r="M5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="13">
         <f t="shared" ref="T5:T8" si="0">SUM(IF(C5="x",$C$2,0),IF(D5="x",$D$2,0),IF(E5="x",$E$2,0),IF(F5="x",$F$2,0),IF(G5="x",$G$2,0),IF(H5="x",$H$2,0),IF(I5="x",$I$2,0),IF(J5="x",$J$2,0),IF(K5="x",$K$2,0),IF(L5="x",$L$2,0),IF(M5="x",$M$2,0),IF(N5="x",$N$2,0),IF(O5="x",$O$2,0),IF(P5="x",$P$2,0),IF(Q5="x",$Q$2,0),IF(R5="x",$R$2,0))</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="16">
+      <c r="M6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="16">
+      <c r="S7" s="11"/>
+      <c r="T7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1074,14 +1170,20 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="16">
+      <c r="S8" s="11"/>
+      <c r="T8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1103,20 +1205,20 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="17"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1130,16 +1232,16 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1153,16 +1255,16 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1177,15 +1279,15 @@
     </row>
     <row r="13" spans="1:21" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1199,16 +1301,16 @@
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1223,12 +1325,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="landscape" r:id="rId1"/>
